--- a/Historia Clinica Scripts/LISTA DE CATALOGO PARA HISTORIAS CLINICAS.xlsx
+++ b/Historia Clinica Scripts/LISTA DE CATALOGO PARA HISTORIAS CLINICAS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -600,6 +600,333 @@
   </si>
   <si>
     <t>HISTORIACLINICA01206</t>
+  </si>
+  <si>
+    <t>TIPO DE LACTANCIA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA013</t>
+  </si>
+  <si>
+    <t>LACTANCIA EXCLUSIVA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01301</t>
+  </si>
+  <si>
+    <t>LACTANCIA MIXTA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01302</t>
+  </si>
+  <si>
+    <t>SERVICIOS BÁSICOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA014</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01401</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01402</t>
+  </si>
+  <si>
+    <t>CONFIRMACION PREGUNTAS CERRADAS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA015</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01501</t>
+  </si>
+  <si>
+    <t>ANORMAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01502</t>
+  </si>
+  <si>
+    <t>DATOS ANTROPOMÉTRICOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA016</t>
+  </si>
+  <si>
+    <t>ASPECTO GENERAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01601</t>
+  </si>
+  <si>
+    <t>PIEL Y MUCOSAS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01602</t>
+  </si>
+  <si>
+    <t>CABEZA Y CUELLO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA017</t>
+  </si>
+  <si>
+    <t>CRANEO Y CUERO CABELLUDO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01701</t>
+  </si>
+  <si>
+    <t>OJOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01702</t>
+  </si>
+  <si>
+    <t>OREJAS Y OIDOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01703</t>
+  </si>
+  <si>
+    <t>NARIZ</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01704</t>
+  </si>
+  <si>
+    <t>BOCA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01705</t>
+  </si>
+  <si>
+    <t>CUELLO Y TIROIDE</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01706</t>
+  </si>
+  <si>
+    <t>AGUDEZA AUDITIVA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01707</t>
+  </si>
+  <si>
+    <t>SALUD BUCAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01708</t>
+  </si>
+  <si>
+    <t>AGUDEZA VISUAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01709</t>
+  </si>
+  <si>
+    <t>AGUDEZA OLFATO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01710</t>
+  </si>
+  <si>
+    <t>TORAX</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA018</t>
+  </si>
+  <si>
+    <t>CAJA TORÁCICA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01801</t>
+  </si>
+  <si>
+    <t>CAMPOS PULMONARES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01802</t>
+  </si>
+  <si>
+    <t>MAMAS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01803</t>
+  </si>
+  <si>
+    <t>CARDÍACO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01804</t>
+  </si>
+  <si>
+    <t>ABDOMEN Y PELVIS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA019</t>
+  </si>
+  <si>
+    <t>ABODOMEN Y PELVIS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01901</t>
+  </si>
+  <si>
+    <t>ANO Y RECTO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01902</t>
+  </si>
+  <si>
+    <t>GENITOURINARIO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA01903</t>
+  </si>
+  <si>
+    <t>MUSCULOESQUELÉTICO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA020</t>
+  </si>
+  <si>
+    <t>EXTREMIDADES SUPERIORES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02001</t>
+  </si>
+  <si>
+    <t>EXTREMIDADES INFERIORES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02002</t>
+  </si>
+  <si>
+    <t>ANTECEDENTES PERSONALES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA021</t>
+  </si>
+  <si>
+    <t>PERINATALES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02101</t>
+  </si>
+  <si>
+    <t>CRECIMIENTO NORMAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02102</t>
+  </si>
+  <si>
+    <t>DESARROLLO NORMAL</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02103</t>
+  </si>
+  <si>
+    <t>VACUNAS COMPLETAS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02104</t>
+  </si>
+  <si>
+    <t>DISCAPACIDAD</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02105</t>
+  </si>
+  <si>
+    <t>INTOXICACIONES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02106</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02107</t>
+  </si>
+  <si>
+    <t>ACCIDENTES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02108</t>
+  </si>
+  <si>
+    <t>PROBLEMAS PSICOLÓGICOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02109</t>
+  </si>
+  <si>
+    <t>JUDICIALES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02110</t>
+  </si>
+  <si>
+    <t>EDUCACION PREESCOLAR</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02111</t>
+  </si>
+  <si>
+    <t>VIOLENCIA</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02112</t>
+  </si>
+  <si>
+    <t>TIPO SERVICIOS HIGIENICOS</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA022</t>
+  </si>
+  <si>
+    <t>LETRINA O RETRETE</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02201</t>
+  </si>
+  <si>
+    <t>INODORO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02202</t>
+  </si>
+  <si>
+    <t>TIPO ANIMALES</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA023</t>
+  </si>
+  <si>
+    <t>PERRO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02301</t>
+  </si>
+  <si>
+    <t>GATO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02302</t>
+  </si>
+  <si>
+    <t>CONEJO</t>
+  </si>
+  <si>
+    <t>HISTORIACLINICA02303</t>
   </si>
 </sst>
 </file>
@@ -655,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E100" totalsRowShown="0">
-  <autoFilter ref="A1:E100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E155" totalsRowShown="0">
+  <autoFilter ref="A1:E155"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="PADRE"/>
@@ -931,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,6 +2903,905 @@
         <v>160</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8550</v>
+      </c>
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8551</v>
+      </c>
+      <c r="B102">
+        <v>8550</v>
+      </c>
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8552</v>
+      </c>
+      <c r="B103">
+        <v>8550</v>
+      </c>
+      <c r="C103" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8553</v>
+      </c>
+      <c r="C104" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8554</v>
+      </c>
+      <c r="B105">
+        <v>8553</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>8555</v>
+      </c>
+      <c r="B106">
+        <v>8553</v>
+      </c>
+      <c r="C106" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8592</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>8593</v>
+      </c>
+      <c r="B108">
+        <v>8592</v>
+      </c>
+      <c r="C108" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>8594</v>
+      </c>
+      <c r="B109">
+        <v>8592</v>
+      </c>
+      <c r="C109" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" t="s">
+        <v>209</v>
+      </c>
+      <c r="E109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>8595</v>
+      </c>
+      <c r="C110" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" t="s">
+        <v>211</v>
+      </c>
+      <c r="E110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>8596</v>
+      </c>
+      <c r="B111">
+        <v>8595</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>8597</v>
+      </c>
+      <c r="B112">
+        <v>8595</v>
+      </c>
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>8598</v>
+      </c>
+      <c r="C113" t="s">
+        <v>216</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8599</v>
+      </c>
+      <c r="B114">
+        <v>8598</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8600</v>
+      </c>
+      <c r="B115">
+        <v>8598</v>
+      </c>
+      <c r="C115" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>8602</v>
+      </c>
+      <c r="B116">
+        <v>8598</v>
+      </c>
+      <c r="C116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D116" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>8603</v>
+      </c>
+      <c r="B117">
+        <v>8598</v>
+      </c>
+      <c r="C117" t="s">
+        <v>224</v>
+      </c>
+      <c r="D117" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8604</v>
+      </c>
+      <c r="B118">
+        <v>8598</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" t="s">
+        <v>227</v>
+      </c>
+      <c r="E118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8605</v>
+      </c>
+      <c r="B119">
+        <v>8598</v>
+      </c>
+      <c r="C119" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" t="s">
+        <v>229</v>
+      </c>
+      <c r="E119" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8606</v>
+      </c>
+      <c r="B120">
+        <v>8598</v>
+      </c>
+      <c r="C120" t="s">
+        <v>230</v>
+      </c>
+      <c r="D120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>8607</v>
+      </c>
+      <c r="B121">
+        <v>8598</v>
+      </c>
+      <c r="C121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" t="s">
+        <v>233</v>
+      </c>
+      <c r="E121" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8608</v>
+      </c>
+      <c r="B122">
+        <v>8598</v>
+      </c>
+      <c r="C122" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>8609</v>
+      </c>
+      <c r="B123">
+        <v>8598</v>
+      </c>
+      <c r="C123" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" t="s">
+        <v>237</v>
+      </c>
+      <c r="E123" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>8610</v>
+      </c>
+      <c r="C124" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>8611</v>
+      </c>
+      <c r="B125">
+        <v>8609</v>
+      </c>
+      <c r="C125" t="s">
+        <v>240</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>8612</v>
+      </c>
+      <c r="B126">
+        <v>8609</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+      <c r="D126" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>8613</v>
+      </c>
+      <c r="B127">
+        <v>8609</v>
+      </c>
+      <c r="C127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>8614</v>
+      </c>
+      <c r="B128">
+        <v>8609</v>
+      </c>
+      <c r="C128" t="s">
+        <v>246</v>
+      </c>
+      <c r="D128" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8616</v>
+      </c>
+      <c r="C129" t="s">
+        <v>248</v>
+      </c>
+      <c r="D129" t="s">
+        <v>249</v>
+      </c>
+      <c r="E129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8617</v>
+      </c>
+      <c r="B130">
+        <v>8616</v>
+      </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" t="s">
+        <v>251</v>
+      </c>
+      <c r="E130" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>8618</v>
+      </c>
+      <c r="B131">
+        <v>8616</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>8619</v>
+      </c>
+      <c r="B132">
+        <v>8616</v>
+      </c>
+      <c r="C132" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" t="s">
+        <v>255</v>
+      </c>
+      <c r="E132" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>8620</v>
+      </c>
+      <c r="C133" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>8621</v>
+      </c>
+      <c r="B134">
+        <v>8620</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" t="s">
+        <v>259</v>
+      </c>
+      <c r="E134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>8622</v>
+      </c>
+      <c r="B135">
+        <v>8620</v>
+      </c>
+      <c r="C135" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>8623</v>
+      </c>
+      <c r="C136" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8624</v>
+      </c>
+      <c r="B137">
+        <v>8623</v>
+      </c>
+      <c r="C137" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8625</v>
+      </c>
+      <c r="B138">
+        <v>8623</v>
+      </c>
+      <c r="C138" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>8626</v>
+      </c>
+      <c r="B139">
+        <v>8623</v>
+      </c>
+      <c r="C139" t="s">
+        <v>268</v>
+      </c>
+      <c r="D139" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>8627</v>
+      </c>
+      <c r="B140">
+        <v>8623</v>
+      </c>
+      <c r="C140" t="s">
+        <v>270</v>
+      </c>
+      <c r="D140" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>8628</v>
+      </c>
+      <c r="B141">
+        <v>8623</v>
+      </c>
+      <c r="C141" t="s">
+        <v>272</v>
+      </c>
+      <c r="D141" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>8629</v>
+      </c>
+      <c r="B142">
+        <v>8623</v>
+      </c>
+      <c r="C142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" t="s">
+        <v>275</v>
+      </c>
+      <c r="E142" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>8630</v>
+      </c>
+      <c r="B143">
+        <v>8623</v>
+      </c>
+      <c r="C143" t="s">
+        <v>71</v>
+      </c>
+      <c r="D143" t="s">
+        <v>276</v>
+      </c>
+      <c r="E143" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>8631</v>
+      </c>
+      <c r="B144">
+        <v>8623</v>
+      </c>
+      <c r="C144" t="s">
+        <v>277</v>
+      </c>
+      <c r="D144" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>8632</v>
+      </c>
+      <c r="B145">
+        <v>8623</v>
+      </c>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" t="s">
+        <v>280</v>
+      </c>
+      <c r="E145" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>8633</v>
+      </c>
+      <c r="B146">
+        <v>8623</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>8634</v>
+      </c>
+      <c r="B147">
+        <v>8623</v>
+      </c>
+      <c r="C147" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" t="s">
+        <v>284</v>
+      </c>
+      <c r="E147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8635</v>
+      </c>
+      <c r="B148">
+        <v>8623</v>
+      </c>
+      <c r="C148" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" t="s">
+        <v>286</v>
+      </c>
+      <c r="E148" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8644</v>
+      </c>
+      <c r="C149" t="s">
+        <v>287</v>
+      </c>
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8645</v>
+      </c>
+      <c r="B150">
+        <v>8644</v>
+      </c>
+      <c r="C150" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" t="s">
+        <v>290</v>
+      </c>
+      <c r="E150" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>8646</v>
+      </c>
+      <c r="B151">
+        <v>8644</v>
+      </c>
+      <c r="C151" t="s">
+        <v>291</v>
+      </c>
+      <c r="D151" t="s">
+        <v>292</v>
+      </c>
+      <c r="E151" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>8647</v>
+      </c>
+      <c r="C152" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" t="s">
+        <v>294</v>
+      </c>
+      <c r="E152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8648</v>
+      </c>
+      <c r="B153">
+        <v>8647</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+      <c r="D153" t="s">
+        <v>296</v>
+      </c>
+      <c r="E153" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8649</v>
+      </c>
+      <c r="B154">
+        <v>8647</v>
+      </c>
+      <c r="C154" t="s">
+        <v>297</v>
+      </c>
+      <c r="D154" t="s">
+        <v>298</v>
+      </c>
+      <c r="E154" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8650</v>
+      </c>
+      <c r="B155">
+        <v>8647</v>
+      </c>
+      <c r="C155" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" t="s">
+        <v>300</v>
+      </c>
+      <c r="E155" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
